--- a/static/temp/组织架构图模版.xlsx
+++ b/static/temp/组织架构图模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sin/git/organization-chart/static/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>工号</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>Android开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5922,7 +5918,7 @@
         <xdr:cNvPr id="2" name="图示 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6243,7 +6239,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6325,7 +6321,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="4">
         <v>37571</v>
@@ -6389,7 +6385,7 @@
         <v>6000</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>33</v>
@@ -6423,7 +6419,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4">
         <v>38052</v>
@@ -6467,12 +6463,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="4">
         <v>38042</v>
@@ -6513,13 +6509,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4">
         <v>38251</v>
@@ -6527,9 +6523,7 @@
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="5">
         <v>10000</v>
       </c>
@@ -6563,12 +6557,12 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="4">
         <v>38908</v>

--- a/static/temp/组织架构图模版.xlsx
+++ b/static/temp/组织架构图模版.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27309"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sin/git/organization-chart/static/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangjiecong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{905EB31B-0FDC-6E4A-AD0D-9DA1CDFF439C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CB391A56-A04C-2B4F-B49A-426E3E5D958B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>工号</t>
   </si>
@@ -180,6 +175,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>二3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,16 +214,32 @@
     <t>成都研发部经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,7 +442,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="1"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="1" xr:uid="{3FB93EE5-2A56-C84A-A57C-396FC9EFAFB9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,13 +1548,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C2011300-D19B-A942-96B9-72ED819A0B38}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="hierRoot1" presStyleCnt="0">
@@ -1561,13 +1569,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="titleText1" presStyleLbl="fgAcc0" presStyleIdx="0" presStyleCnt="1" custScaleY="256206" custLinFactNeighborX="85856" custLinFactNeighborY="55336">
@@ -1577,24 +1578,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{57A348ED-5C75-8C48-8BA9-7467BD888F30}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="hierChild2" presStyleCnt="0"/>
@@ -1603,13 +1590,6 @@
     <dgm:pt modelId="{D4BA154A-EF9B-5545-9696-4B3B9C7D9989}" type="pres">
       <dgm:prSet presAssocID="{9025275D-ED64-AC44-844F-BB686D1AF982}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{72874E3D-BBE0-FC4B-A45C-890FFF5214D8}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="hierRoot2" presStyleCnt="0">
@@ -1631,13 +1611,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7133F47A-877A-F349-8370-240039359B92}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="0" presStyleCnt="6">
@@ -1647,24 +1620,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7AAB23CD-7749-9948-A73E-6204EAFAF4DF}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9BD0687B-ACBC-414D-BD7A-F798C4F2EA05}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="hierChild4" presStyleCnt="0"/>
@@ -1673,13 +1632,6 @@
     <dgm:pt modelId="{FFE8E67D-411E-CE4D-88C6-282B1150ED80}" type="pres">
       <dgm:prSet presAssocID="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E3B848D6-586D-7641-A26B-018779CF5661}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="hierRoot2" presStyleCnt="0">
@@ -1701,13 +1653,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="1" presStyleCnt="6">
@@ -1717,24 +1662,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D6B75D68-B552-1143-8024-DCF341B7082B}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="hierChild4" presStyleCnt="0"/>
@@ -1751,13 +1682,6 @@
     <dgm:pt modelId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" type="pres">
       <dgm:prSet presAssocID="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3D1B1EEC-0FEE-814D-94E2-B539F24549D4}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="hierRoot2" presStyleCnt="0">
@@ -1779,13 +1703,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="2" presStyleCnt="6">
@@ -1795,24 +1712,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6AD9FAF3-ABE8-8C46-9E0E-AC0C192A3D8A}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="hierChild4" presStyleCnt="0"/>
@@ -1825,13 +1728,6 @@
     <dgm:pt modelId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" type="pres">
       <dgm:prSet presAssocID="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D01ED415-E935-724A-9E6F-D7699BE6B9FA}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="hierRoot2" presStyleCnt="0">
@@ -1853,13 +1749,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{96325838-125F-6243-AD2B-2637D228B03B}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="3" presStyleCnt="6" custScaleY="244503">
@@ -1869,24 +1758,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BD7A72D0-EA8F-D744-9C07-5D8DD18DA749}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="hierChild4" presStyleCnt="0"/>
@@ -1899,13 +1774,6 @@
     <dgm:pt modelId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" type="pres">
       <dgm:prSet presAssocID="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A51B3202-9C15-8D41-8045-87F228A09F58}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="hierRoot2" presStyleCnt="0">
@@ -1927,13 +1795,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="4" presStyleCnt="6">
@@ -1943,24 +1804,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EDFD740C-2E3F-0746-A837-10D7258DB4F8}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="hierChild4" presStyleCnt="0"/>
@@ -1969,13 +1816,6 @@
     <dgm:pt modelId="{652478D0-177F-DD46-A54C-236EE83C5B18}" type="pres">
       <dgm:prSet presAssocID="{03C243B6-A957-CA43-91BD-7E272D127203}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{195E2ABA-6308-3A44-81F2-FFEB1D89455C}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="hierRoot2" presStyleCnt="0">
@@ -1997,13 +1837,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="5" presStyleCnt="6">
@@ -2013,24 +1846,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FAA3A569-258F-7242-A92B-6951F6C84073}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F3C0BFAA-6206-6B42-B075-61E6F758241E}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="hierChild4" presStyleCnt="0"/>
@@ -2050,41 +1869,41 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{C642D8B9-217A-064D-9258-2FAC83C5DF85}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{EE397787-2067-234A-8FC7-877B3A85D769}" srcOrd="1" destOrd="0" parTransId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" sibTransId="{73F3DB4A-337D-414C-B007-81D3692886D0}"/>
+    <dgm:cxn modelId="{4B307006-EF03-C747-9731-82D911F86474}" type="presOf" srcId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}" destId="{7133F47A-877A-F349-8370-240039359B92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{7B93780C-F087-5947-98E4-54CA12911C8B}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{7AAB23CD-7749-9948-A73E-6204EAFAF4DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{D6A26118-23C3-5B4A-B1E1-09C60D2113BD}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{D357507C-6863-4947-B62F-396BF4277CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{336A7319-D8B9-EC48-BF66-CB9C024BFC67}" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" srcOrd="0" destOrd="0" parTransId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" sibTransId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}"/>
+    <dgm:cxn modelId="{4B5BB62E-BFD4-774E-A6DE-42E4DC694F96}" type="presOf" srcId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}" destId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{4E688D32-E08D-EA4E-9563-072257E57F78}" type="presOf" srcId="{73F3DB4A-337D-414C-B007-81D3692886D0}" destId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{DA992D33-8B77-254F-9384-2ADBB08204E6}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{5ABCDD0E-64D1-564D-994D-A5EE783833E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{F012DC45-ADF8-BF47-8242-72BAB78C1BB0}" type="presOf" srcId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}" destId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{DC3A694D-5EF8-5444-BD0D-2269ADC82B2F}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" srcOrd="2" destOrd="0" parTransId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" sibTransId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}"/>
+    <dgm:cxn modelId="{E2F75B4F-C7A2-2D48-86F2-7662B466743E}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{302A9374-C6EC-0241-8731-51CA5C40DF1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{B3916E54-3908-1F45-8ECA-31954D57207A}" type="presOf" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{97583BB3-BAA1-9B44-9E03-27B069D8F1D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E196DF7B-44DB-2644-ADB3-27B8ED0F8C0B}" type="presOf" srcId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" destId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{7E12D0CC-9738-4948-AB46-A419BCEB61D6}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{CB23CDE9-7ECE-3C43-A7FC-9A237FCA3B72}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{039AAD9A-8EB9-4C46-8244-7E7A06416C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{DA992D33-8B77-254F-9384-2ADBB08204E6}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{5ABCDD0E-64D1-564D-994D-A5EE783833E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{5109A25E-78D8-454D-9E9D-A979D2C58039}" type="presOf" srcId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" destId="{FFE8E67D-411E-CE4D-88C6-282B1150ED80}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{276D3668-366C-5B49-B30A-70F172BD8212}" type="presOf" srcId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}" destId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{4B307006-EF03-C747-9731-82D911F86474}" type="presOf" srcId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}" destId="{7133F47A-877A-F349-8370-240039359B92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{05ED5B6B-B0F7-904D-BB6F-FED9DF71E1C5}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{BB55A918-BFE1-AD45-B1D3-C92B258950F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{3EA8E86D-1B54-854C-87C2-DF0A46837636}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" srcOrd="0" destOrd="0" parTransId="{9025275D-ED64-AC44-844F-BB686D1AF982}" sibTransId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}"/>
+    <dgm:cxn modelId="{ACE34373-68A0-C44C-A906-DB8BBEA85906}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{0EF54E77-DCB4-2541-8D61-3776593EEE2B}" type="presOf" srcId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}" destId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E196DF7B-44DB-2644-ADB3-27B8ED0F8C0B}" type="presOf" srcId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" destId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{0648117D-08DA-4D4F-B9EB-9342932E857D}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E71E8183-47A7-FF45-9AD2-50040842F79C}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{7B13923C-FD95-7047-9A3E-DAF428E79458}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{1EC5C886-CA66-FA4D-82F6-88D2DAE54D3A}" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" srcOrd="0" destOrd="0" parTransId="{779C4FAB-7AB7-C34B-9535-0232D681C025}" sibTransId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}"/>
+    <dgm:cxn modelId="{A64C8587-F420-C440-BDD0-C506B41127A0}" type="presOf" srcId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" destId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{3DAE4D98-ACD5-8C43-AF8D-9F1DB3D3F5A7}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{1C24399A-1BF2-C24F-9A94-9C9D2A500EFF}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{02967BF2-535B-3846-B9F7-07A678CAA257}" srcOrd="3" destOrd="0" parTransId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" sibTransId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}"/>
     <dgm:cxn modelId="{06F6729A-B930-7444-AE0C-305FDBE51E6E}" type="presOf" srcId="{9025275D-ED64-AC44-844F-BB686D1AF982}" destId="{D4BA154A-EF9B-5545-9696-4B3B9C7D9989}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{3EA8E86D-1B54-854C-87C2-DF0A46837636}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" srcOrd="0" destOrd="0" parTransId="{9025275D-ED64-AC44-844F-BB686D1AF982}" sibTransId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}"/>
+    <dgm:cxn modelId="{62F089A4-7B32-0542-9AA1-5DCF40C45724}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{FAA3A569-258F-7242-A92B-6951F6C84073}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{1D8E88B1-AEFA-3F40-B878-ED315643DE4C}" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" srcOrd="0" destOrd="0" parTransId="{03C243B6-A957-CA43-91BD-7E272D127203}" sibTransId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}"/>
+    <dgm:cxn modelId="{B9EE7AB5-B502-7049-A561-94A6A7B83785}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{B105212A-2996-A541-BC63-AF73B2538D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{C642D8B9-217A-064D-9258-2FAC83C5DF85}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{EE397787-2067-234A-8FC7-877B3A85D769}" srcOrd="1" destOrd="0" parTransId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" sibTransId="{73F3DB4A-337D-414C-B007-81D3692886D0}"/>
+    <dgm:cxn modelId="{34C3AABC-C52B-FF45-9B22-7FD7579A3258}" type="presOf" srcId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" destId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{AAD943BE-E2B3-4940-A1E3-B19E61544394}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{7E12D0CC-9738-4948-AB46-A419BCEB61D6}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{9C42BFD9-1D28-234F-A2D5-5DB21BCAA3EB}" type="presOf" srcId="{03C243B6-A957-CA43-91BD-7E272D127203}" destId="{652478D0-177F-DD46-A54C-236EE83C5B18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{7B93780C-F087-5947-98E4-54CA12911C8B}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{7AAB23CD-7749-9948-A73E-6204EAFAF4DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{62F089A4-7B32-0542-9AA1-5DCF40C45724}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{FAA3A569-258F-7242-A92B-6951F6C84073}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{3DAE4D98-ACD5-8C43-AF8D-9F1DB3D3F5A7}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{0648117D-08DA-4D4F-B9EB-9342932E857D}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{B9EE7AB5-B502-7049-A561-94A6A7B83785}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{B105212A-2996-A541-BC63-AF73B2538D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{ACE34373-68A0-C44C-A906-DB8BBEA85906}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{4E688D32-E08D-EA4E-9563-072257E57F78}" type="presOf" srcId="{73F3DB4A-337D-414C-B007-81D3692886D0}" destId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E71E8183-47A7-FF45-9AD2-50040842F79C}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{7B13923C-FD95-7047-9A3E-DAF428E79458}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E2F75B4F-C7A2-2D48-86F2-7662B466743E}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{302A9374-C6EC-0241-8731-51CA5C40DF1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{F012DC45-ADF8-BF47-8242-72BAB78C1BB0}" type="presOf" srcId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}" destId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{AAD943BE-E2B3-4940-A1E3-B19E61544394}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{0EF54E77-DCB4-2541-8D61-3776593EEE2B}" type="presOf" srcId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}" destId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{CB23CDE9-7ECE-3C43-A7FC-9A237FCA3B72}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{039AAD9A-8EB9-4C46-8244-7E7A06416C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{E0B0DDE9-D3D0-CB41-BBC8-5CD501E39817}" type="presOf" srcId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}" destId="{96325838-125F-6243-AD2B-2637D228B03B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{DC3A694D-5EF8-5444-BD0D-2269ADC82B2F}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" srcOrd="2" destOrd="0" parTransId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" sibTransId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}"/>
-    <dgm:cxn modelId="{34C3AABC-C52B-FF45-9B22-7FD7579A3258}" type="presOf" srcId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" destId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{A64C8587-F420-C440-BDD0-C506B41127A0}" type="presOf" srcId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" destId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{1C24399A-1BF2-C24F-9A94-9C9D2A500EFF}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{02967BF2-535B-3846-B9F7-07A678CAA257}" srcOrd="3" destOrd="0" parTransId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" sibTransId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}"/>
-    <dgm:cxn modelId="{1EC5C886-CA66-FA4D-82F6-88D2DAE54D3A}" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" srcOrd="0" destOrd="0" parTransId="{779C4FAB-7AB7-C34B-9535-0232D681C025}" sibTransId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}"/>
-    <dgm:cxn modelId="{336A7319-D8B9-EC48-BF66-CB9C024BFC67}" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" srcOrd="0" destOrd="0" parTransId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" sibTransId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}"/>
-    <dgm:cxn modelId="{4B5BB62E-BFD4-774E-A6DE-42E4DC694F96}" type="presOf" srcId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}" destId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{05ED5B6B-B0F7-904D-BB6F-FED9DF71E1C5}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{BB55A918-BFE1-AD45-B1D3-C92B258950F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{1D8E88B1-AEFA-3F40-B878-ED315643DE4C}" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" srcOrd="0" destOrd="0" parTransId="{03C243B6-A957-CA43-91BD-7E272D127203}" sibTransId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}"/>
     <dgm:cxn modelId="{E4687A1A-996F-EC45-942B-8E43174B50F1}" type="presParOf" srcId="{97583BB3-BAA1-9B44-9E03-27B069D8F1D4}" destId="{C2011300-D19B-A942-96B9-72ED819A0B38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{B384B0A4-918F-964B-AFAF-F9AB333A939B}" type="presParOf" srcId="{C2011300-D19B-A942-96B9-72ED819A0B38}" destId="{6B752A5D-C7D8-2D4A-BC91-9EB41ECDCBC9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{09F8A591-2F28-1A46-9F15-3C0EEADB001A}" type="presParOf" srcId="{6B752A5D-C7D8-2D4A-BC91-9EB41ECDCBC9}" destId="{BB55A918-BFE1-AD45-B1D3-C92B258950F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
@@ -2166,8 +1985,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6263825" y="2044620"/>
-          <a:ext cx="91440" cy="412386"/>
+          <a:off x="8051259" y="2063641"/>
+          <a:ext cx="91440" cy="420020"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2181,7 +2000,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="412386"/>
+                <a:pt x="45720" y="420020"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2222,8 +2041,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3604260" y="732667"/>
-          <a:ext cx="2705285" cy="598205"/>
+          <a:off x="5341620" y="727405"/>
+          <a:ext cx="2755359" cy="609278"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2237,13 +2056,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="431665"/>
+                <a:pt x="0" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2705285" y="431665"/>
+                <a:pt x="2755359" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2705285" y="598205"/>
+                <a:pt x="2755359" y="609278"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2284,8 +2103,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3604260" y="732667"/>
-          <a:ext cx="855810" cy="598205"/>
+          <a:off x="5341620" y="727405"/>
+          <a:ext cx="871651" cy="609278"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2299,13 +2118,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="431665"/>
+                <a:pt x="0" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="855810" y="431665"/>
+                <a:pt x="871651" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="855810" y="598205"/>
+                <a:pt x="871651" y="609278"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2346,8 +2165,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2610595" y="732667"/>
-          <a:ext cx="993664" cy="598205"/>
+          <a:off x="4329563" y="727405"/>
+          <a:ext cx="1012056" cy="609278"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2358,16 +2177,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="993664" y="0"/>
+                <a:pt x="1012056" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="993664" y="431665"/>
+                <a:pt x="1012056" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="431665"/>
+                <a:pt x="0" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="598205"/>
+                <a:pt x="0" y="609278"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2408,8 +2227,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="715401" y="2044620"/>
-          <a:ext cx="91440" cy="412386"/>
+          <a:off x="2400134" y="2063641"/>
+          <a:ext cx="91440" cy="420020"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2423,7 +2242,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="412386"/>
+                <a:pt x="45720" y="420020"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2464,8 +2283,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="761121" y="732667"/>
-          <a:ext cx="2843138" cy="598205"/>
+          <a:off x="2445854" y="727405"/>
+          <a:ext cx="2895765" cy="609278"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2476,16 +2295,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2843138" y="0"/>
+                <a:pt x="2895765" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2843138" y="431665"/>
+                <a:pt x="2895765" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="431665"/>
+                <a:pt x="0" y="439655"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="598205"/>
+                <a:pt x="0" y="609278"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2526,8 +2345,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2018430" y="18921"/>
-          <a:ext cx="3171659" cy="713746"/>
+          <a:off x="3726436" y="447"/>
+          <a:ext cx="3230367" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,12 +2388,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2584,6 +2403,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -2592,8 +2412,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2018430" y="18921"/>
-        <a:ext cx="3171659" cy="713746"/>
+        <a:off x="3726436" y="447"/>
+        <a:ext cx="3230367" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}">
@@ -2603,8 +2423,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4255900" y="519891"/>
-          <a:ext cx="1240685" cy="609553"/>
+          <a:off x="6005322" y="510690"/>
+          <a:ext cx="1263650" cy="620836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2650,7 +2470,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2660,6 +2480,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
@@ -2672,7 +2493,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2682,6 +2503,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
@@ -2689,7 +2511,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2699,6 +2521,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
@@ -2720,8 +2543,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4255900" y="519891"/>
-        <a:ext cx="1240685" cy="609553"/>
+        <a:off x="6005322" y="510690"/>
+        <a:ext cx="1263650" cy="620836"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B105212A-2996-A541-BC63-AF73B2538D4A}">
@@ -2731,8 +2554,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="71851" y="1330873"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="1743826" y="1336683"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,12 +2597,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2789,6 +2612,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -2801,8 +2625,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="71851" y="1330873"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="1743826" y="1336683"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7133F47A-877A-F349-8370-240039359B92}">
@@ -2812,8 +2636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="347559" y="1886009"/>
-          <a:ext cx="1240685" cy="237915"/>
+          <a:off x="2024638" y="1902095"/>
+          <a:ext cx="1263650" cy="242319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2859,7 +2683,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="666750">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2869,13 +2693,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="347559" y="1886009"/>
-        <a:ext cx="1240685" cy="237915"/>
+        <a:off x="2024638" y="1902095"/>
+        <a:ext cx="1263650" cy="242319"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7B13923C-FD95-7047-9A3E-DAF428E79458}">
@@ -2885,8 +2710,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="71851" y="2457007"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="1743826" y="2483661"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,12 +2753,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2943,6 +2768,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -2955,8 +2781,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="71851" y="2457007"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="1743826" y="2483661"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}">
@@ -2966,8 +2792,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="347559" y="3012143"/>
-          <a:ext cx="1240685" cy="237915"/>
+          <a:off x="2024638" y="3049073"/>
+          <a:ext cx="1263650" cy="242319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3013,7 +2839,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="666750">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3023,13 +2849,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="347559" y="3012143"/>
-        <a:ext cx="1240685" cy="237915"/>
+        <a:off x="2024638" y="3049073"/>
+        <a:ext cx="1263650" cy="242319"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5ABCDD0E-64D1-564D-994D-A5EE783833E9}">
@@ -3039,8 +2866,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1921326" y="1330873"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="3627535" y="1336683"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,12 +2909,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3097,6 +2924,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -3109,8 +2937,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1921326" y="1330873"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="3627535" y="1336683"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{41B7728A-91BE-EC43-9044-1BA644C1885B}">
@@ -3120,8 +2948,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2197034" y="1886009"/>
-          <a:ext cx="1240685" cy="237915"/>
+          <a:off x="3908346" y="1902095"/>
+          <a:ext cx="1263650" cy="242319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,7 +2995,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="666750">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3177,13 +3005,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2197034" y="1886009"/>
-        <a:ext cx="1240685" cy="237915"/>
+        <a:off x="3908346" y="1902095"/>
+        <a:ext cx="1263650" cy="242319"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{302A9374-C6EC-0241-8731-51CA5C40DF1E}">
@@ -3193,8 +3022,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3770800" y="1330873"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="5511243" y="1336683"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3236,12 +3065,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3251,6 +3080,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -3259,8 +3089,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3770800" y="1330873"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="5511243" y="1336683"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{96325838-125F-6243-AD2B-2637D228B03B}">
@@ -3270,8 +3100,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4046508" y="1714112"/>
-          <a:ext cx="1240685" cy="581710"/>
+          <a:off x="5792054" y="1727016"/>
+          <a:ext cx="1263650" cy="592477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3317,7 +3147,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="266700">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3327,6 +3157,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3335,7 +3166,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="266700">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3345,6 +3176,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3353,7 +3185,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="266700">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3363,6 +3195,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3371,8 +3204,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4046508" y="1714112"/>
-        <a:ext cx="1240685" cy="581710"/>
+        <a:off x="5792054" y="1727016"/>
+        <a:ext cx="1263650" cy="592477"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{039AAD9A-8EB9-4C46-8244-7E7A06416C07}">
@@ -3382,8 +3215,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5620275" y="1330873"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="7394951" y="1336683"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3425,12 +3258,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3440,6 +3273,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -3448,8 +3282,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5620275" y="1330873"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="7394951" y="1336683"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}">
@@ -3459,8 +3293,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5895983" y="1886009"/>
-          <a:ext cx="1240685" cy="237915"/>
+          <a:off x="7675762" y="1902095"/>
+          <a:ext cx="1263650" cy="242319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3506,7 +3340,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="666750">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3516,13 +3350,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5895983" y="1886009"/>
-        <a:ext cx="1240685" cy="237915"/>
+        <a:off x="7675762" y="1902095"/>
+        <a:ext cx="1263650" cy="242319"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D357507C-6863-4947-B62F-396BF4277CCC}">
@@ -3532,8 +3367,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5620275" y="2457007"/>
-          <a:ext cx="1378539" cy="713746"/>
+          <a:off x="7394951" y="2483661"/>
+          <a:ext cx="1404055" cy="726957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3575,12 +3410,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="100718" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="102582" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3590,6 +3425,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -3602,8 +3438,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5620275" y="2457007"/>
-        <a:ext cx="1378539" cy="713746"/>
+        <a:off x="7394951" y="2483661"/>
+        <a:ext cx="1404055" cy="726957"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}">
@@ -3613,8 +3449,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5895983" y="3012143"/>
-          <a:ext cx="1240685" cy="237915"/>
+          <a:off x="7675762" y="3049073"/>
+          <a:ext cx="1263650" cy="242319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,7 +3496,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="r" defTabSz="666750">
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3670,13 +3506,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5895983" y="3012143"/>
-        <a:ext cx="1240685" cy="237915"/>
+        <a:off x="7675762" y="3049073"/>
+        <a:ext cx="1263650" cy="242319"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5908,7 +5745,7 @@
       <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>223520</xdr:rowOff>
@@ -5918,7 +5755,7 @@
         <xdr:cNvPr id="2" name="图示 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,24 +6072,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E9052-9F5C-E24F-947A-E8AAD935CF42}">
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="9"/>
     <col min="7" max="7" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.83203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6274,38 +6114,50 @@
       <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>800001</v>
       </c>
@@ -6321,40 +6173,44 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="4">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4">
         <v>37571</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5">
+      <c r="O2" s="5">
         <v>9000</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>800002</v>
       </c>
@@ -6372,38 +6228,42 @@
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4">
         <v>37571</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5">
+      <c r="O3" s="5">
         <v>6000</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>32</v>
+      <c r="P3" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>800003</v>
       </c>
@@ -6419,40 +6279,44 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
         <v>38052</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5">
+      <c r="O4" s="5">
         <v>8000</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>800004</v>
       </c>
@@ -6463,45 +6327,49 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="4">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
         <v>38042</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="5">
+      <c r="O5" s="5">
         <v>8000</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>800005</v>
       </c>
@@ -6509,44 +6377,50 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
         <v>38251</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="5">
+      <c r="N6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="5">
         <v>10000</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="R6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>800007</v>
       </c>
@@ -6557,45 +6431,49 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
         <v>38908</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5">
+      <c r="O7" s="5">
         <v>6000</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="R7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>800008</v>
       </c>
@@ -6615,59 +6493,63 @@
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <v>42561</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="N8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="5">
+      <c r="O8" s="5">
         <v>4000</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="10">
+      <c r="Q8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="R8" s="10">
         <v>0</v>
       </c>
-      <c r="O8" s="10">
+      <c r="S8" s="10">
         <v>0</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="T8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="U8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="27" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="27" customHeight="1">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="27" customHeight="1">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="27" customHeight="1">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="27" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="27" customHeight="1">
       <c r="B16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P8" xr:uid="{3A29E9FD-7976-0146-8FE7-10B77E4EB45A}">
       <formula1>"一1,一2,一3,二1,二2,二3,三1,三2,三3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/temp/组织架构图模版.xlsx
+++ b/static/temp/组织架构图模版.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangjiecong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sin/git/organization-chart/static/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905EB31B-0FDC-6E4A-AD0D-9DA1CDFF439C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CB391A56-A04C-2B4F-B49A-426E3E5D958B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>工号</t>
   </si>
@@ -175,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,16 +231,44 @@
     <t>毕业时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡卡西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡卡西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,7 +471,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="1" xr:uid="{3FB93EE5-2A56-C84A-A57C-396FC9EFAFB9}"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1548,6 +1577,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C2011300-D19B-A942-96B9-72ED819A0B38}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="hierRoot1" presStyleCnt="0">
@@ -1569,6 +1605,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="titleText1" presStyleLbl="fgAcc0" presStyleIdx="0" presStyleCnt="1" custScaleY="256206" custLinFactNeighborX="85856" custLinFactNeighborY="55336">
@@ -1578,10 +1621,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{57A348ED-5C75-8C48-8BA9-7467BD888F30}" type="pres">
       <dgm:prSet presAssocID="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" presName="hierChild2" presStyleCnt="0"/>
@@ -1590,6 +1647,13 @@
     <dgm:pt modelId="{D4BA154A-EF9B-5545-9696-4B3B9C7D9989}" type="pres">
       <dgm:prSet presAssocID="{9025275D-ED64-AC44-844F-BB686D1AF982}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{72874E3D-BBE0-FC4B-A45C-890FFF5214D8}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="hierRoot2" presStyleCnt="0">
@@ -1611,6 +1675,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7133F47A-877A-F349-8370-240039359B92}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="0" presStyleCnt="6">
@@ -1620,10 +1691,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7AAB23CD-7749-9948-A73E-6204EAFAF4DF}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9BD0687B-ACBC-414D-BD7A-F798C4F2EA05}" type="pres">
       <dgm:prSet presAssocID="{63D33B29-7A26-C144-B433-5F26993B6C0D}" presName="hierChild4" presStyleCnt="0"/>
@@ -1632,6 +1717,13 @@
     <dgm:pt modelId="{FFE8E67D-411E-CE4D-88C6-282B1150ED80}" type="pres">
       <dgm:prSet presAssocID="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E3B848D6-586D-7641-A26B-018779CF5661}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="hierRoot2" presStyleCnt="0">
@@ -1653,6 +1745,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="1" presStyleCnt="6">
@@ -1662,10 +1761,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D6B75D68-B552-1143-8024-DCF341B7082B}" type="pres">
       <dgm:prSet presAssocID="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" presName="hierChild4" presStyleCnt="0"/>
@@ -1682,6 +1795,13 @@
     <dgm:pt modelId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" type="pres">
       <dgm:prSet presAssocID="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3D1B1EEC-0FEE-814D-94E2-B539F24549D4}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="hierRoot2" presStyleCnt="0">
@@ -1703,6 +1823,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="2" presStyleCnt="6">
@@ -1712,10 +1839,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6AD9FAF3-ABE8-8C46-9E0E-AC0C192A3D8A}" type="pres">
       <dgm:prSet presAssocID="{EE397787-2067-234A-8FC7-877B3A85D769}" presName="hierChild4" presStyleCnt="0"/>
@@ -1728,6 +1869,13 @@
     <dgm:pt modelId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" type="pres">
       <dgm:prSet presAssocID="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D01ED415-E935-724A-9E6F-D7699BE6B9FA}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="hierRoot2" presStyleCnt="0">
@@ -1749,6 +1897,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{96325838-125F-6243-AD2B-2637D228B03B}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="3" presStyleCnt="6" custScaleY="244503">
@@ -1758,10 +1913,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BD7A72D0-EA8F-D744-9C07-5D8DD18DA749}" type="pres">
       <dgm:prSet presAssocID="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" presName="hierChild4" presStyleCnt="0"/>
@@ -1774,6 +1943,13 @@
     <dgm:pt modelId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" type="pres">
       <dgm:prSet presAssocID="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A51B3202-9C15-8D41-8045-87F228A09F58}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="hierRoot2" presStyleCnt="0">
@@ -1795,6 +1971,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="4" presStyleCnt="6">
@@ -1804,10 +1987,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EDFD740C-2E3F-0746-A837-10D7258DB4F8}" type="pres">
       <dgm:prSet presAssocID="{02967BF2-535B-3846-B9F7-07A678CAA257}" presName="hierChild4" presStyleCnt="0"/>
@@ -1816,6 +2013,13 @@
     <dgm:pt modelId="{652478D0-177F-DD46-A54C-236EE83C5B18}" type="pres">
       <dgm:prSet presAssocID="{03C243B6-A957-CA43-91BD-7E272D127203}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{195E2ABA-6308-3A44-81F2-FFEB1D89455C}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="hierRoot2" presStyleCnt="0">
@@ -1837,6 +2041,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="titleText2" presStyleLbl="fgAcc1" presStyleIdx="5" presStyleCnt="6">
@@ -1846,10 +2057,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FAA3A569-258F-7242-A92B-6951F6C84073}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F3C0BFAA-6206-6B42-B075-61E6F758241E}" type="pres">
       <dgm:prSet presAssocID="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" presName="hierChild4" presStyleCnt="0"/>
@@ -1869,41 +2094,41 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{C642D8B9-217A-064D-9258-2FAC83C5DF85}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{EE397787-2067-234A-8FC7-877B3A85D769}" srcOrd="1" destOrd="0" parTransId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" sibTransId="{73F3DB4A-337D-414C-B007-81D3692886D0}"/>
+    <dgm:cxn modelId="{D6A26118-23C3-5B4A-B1E1-09C60D2113BD}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{D357507C-6863-4947-B62F-396BF4277CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{B3916E54-3908-1F45-8ECA-31954D57207A}" type="presOf" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{97583BB3-BAA1-9B44-9E03-27B069D8F1D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E196DF7B-44DB-2644-ADB3-27B8ED0F8C0B}" type="presOf" srcId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" destId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{7E12D0CC-9738-4948-AB46-A419BCEB61D6}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{CB23CDE9-7ECE-3C43-A7FC-9A237FCA3B72}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{039AAD9A-8EB9-4C46-8244-7E7A06416C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{DA992D33-8B77-254F-9384-2ADBB08204E6}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{5ABCDD0E-64D1-564D-994D-A5EE783833E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{5109A25E-78D8-454D-9E9D-A979D2C58039}" type="presOf" srcId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" destId="{FFE8E67D-411E-CE4D-88C6-282B1150ED80}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{276D3668-366C-5B49-B30A-70F172BD8212}" type="presOf" srcId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}" destId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{4B307006-EF03-C747-9731-82D911F86474}" type="presOf" srcId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}" destId="{7133F47A-877A-F349-8370-240039359B92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{06F6729A-B930-7444-AE0C-305FDBE51E6E}" type="presOf" srcId="{9025275D-ED64-AC44-844F-BB686D1AF982}" destId="{D4BA154A-EF9B-5545-9696-4B3B9C7D9989}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{3EA8E86D-1B54-854C-87C2-DF0A46837636}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" srcOrd="0" destOrd="0" parTransId="{9025275D-ED64-AC44-844F-BB686D1AF982}" sibTransId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}"/>
+    <dgm:cxn modelId="{9C42BFD9-1D28-234F-A2D5-5DB21BCAA3EB}" type="presOf" srcId="{03C243B6-A957-CA43-91BD-7E272D127203}" destId="{652478D0-177F-DD46-A54C-236EE83C5B18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{7B93780C-F087-5947-98E4-54CA12911C8B}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{7AAB23CD-7749-9948-A73E-6204EAFAF4DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{D6A26118-23C3-5B4A-B1E1-09C60D2113BD}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{D357507C-6863-4947-B62F-396BF4277CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{62F089A4-7B32-0542-9AA1-5DCF40C45724}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{FAA3A569-258F-7242-A92B-6951F6C84073}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{3DAE4D98-ACD5-8C43-AF8D-9F1DB3D3F5A7}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{0648117D-08DA-4D4F-B9EB-9342932E857D}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{B9EE7AB5-B502-7049-A561-94A6A7B83785}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{B105212A-2996-A541-BC63-AF73B2538D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{ACE34373-68A0-C44C-A906-DB8BBEA85906}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{4E688D32-E08D-EA4E-9563-072257E57F78}" type="presOf" srcId="{73F3DB4A-337D-414C-B007-81D3692886D0}" destId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E71E8183-47A7-FF45-9AD2-50040842F79C}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{7B13923C-FD95-7047-9A3E-DAF428E79458}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E2F75B4F-C7A2-2D48-86F2-7662B466743E}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{302A9374-C6EC-0241-8731-51CA5C40DF1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{F012DC45-ADF8-BF47-8242-72BAB78C1BB0}" type="presOf" srcId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}" destId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{AAD943BE-E2B3-4940-A1E3-B19E61544394}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{0EF54E77-DCB4-2541-8D61-3776593EEE2B}" type="presOf" srcId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}" destId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{E0B0DDE9-D3D0-CB41-BBC8-5CD501E39817}" type="presOf" srcId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}" destId="{96325838-125F-6243-AD2B-2637D228B03B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{DC3A694D-5EF8-5444-BD0D-2269ADC82B2F}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" srcOrd="2" destOrd="0" parTransId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" sibTransId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}"/>
+    <dgm:cxn modelId="{34C3AABC-C52B-FF45-9B22-7FD7579A3258}" type="presOf" srcId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" destId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{A64C8587-F420-C440-BDD0-C506B41127A0}" type="presOf" srcId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" destId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
+    <dgm:cxn modelId="{1C24399A-1BF2-C24F-9A94-9C9D2A500EFF}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{02967BF2-535B-3846-B9F7-07A678CAA257}" srcOrd="3" destOrd="0" parTransId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" sibTransId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}"/>
+    <dgm:cxn modelId="{1EC5C886-CA66-FA4D-82F6-88D2DAE54D3A}" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" srcOrd="0" destOrd="0" parTransId="{779C4FAB-7AB7-C34B-9535-0232D681C025}" sibTransId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}"/>
     <dgm:cxn modelId="{336A7319-D8B9-EC48-BF66-CB9C024BFC67}" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" srcOrd="0" destOrd="0" parTransId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" sibTransId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}"/>
     <dgm:cxn modelId="{4B5BB62E-BFD4-774E-A6DE-42E4DC694F96}" type="presOf" srcId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}" destId="{7D5D0A37-0C3D-0A4A-81BE-C9DF98C1C908}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{4E688D32-E08D-EA4E-9563-072257E57F78}" type="presOf" srcId="{73F3DB4A-337D-414C-B007-81D3692886D0}" destId="{41B7728A-91BE-EC43-9044-1BA644C1885B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{DA992D33-8B77-254F-9384-2ADBB08204E6}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{5ABCDD0E-64D1-564D-994D-A5EE783833E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{F012DC45-ADF8-BF47-8242-72BAB78C1BB0}" type="presOf" srcId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}" destId="{148282BF-E836-B341-AF9C-3B8D5FAA4296}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{DC3A694D-5EF8-5444-BD0D-2269ADC82B2F}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" srcOrd="2" destOrd="0" parTransId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" sibTransId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}"/>
-    <dgm:cxn modelId="{E2F75B4F-C7A2-2D48-86F2-7662B466743E}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{302A9374-C6EC-0241-8731-51CA5C40DF1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{B3916E54-3908-1F45-8ECA-31954D57207A}" type="presOf" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{97583BB3-BAA1-9B44-9E03-27B069D8F1D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{5109A25E-78D8-454D-9E9D-A979D2C58039}" type="presOf" srcId="{CDFBB139-F2D0-CD45-8C89-D18FA87B24EB}" destId="{FFE8E67D-411E-CE4D-88C6-282B1150ED80}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{276D3668-366C-5B49-B30A-70F172BD8212}" type="presOf" srcId="{1EF1AA4B-BED5-8D40-B6A5-038A92439B25}" destId="{9DF0F1C2-0BF3-5F43-913B-374AB115BFF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{05ED5B6B-B0F7-904D-BB6F-FED9DF71E1C5}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{BB55A918-BFE1-AD45-B1D3-C92B258950F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{3EA8E86D-1B54-854C-87C2-DF0A46837636}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" srcOrd="0" destOrd="0" parTransId="{9025275D-ED64-AC44-844F-BB686D1AF982}" sibTransId="{82F812E9-3EAA-1A47-B73C-2342E5F2EBD6}"/>
-    <dgm:cxn modelId="{ACE34373-68A0-C44C-A906-DB8BBEA85906}" type="presOf" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{9BDDB45E-6F87-CB40-A2E4-355B02E67104}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{0EF54E77-DCB4-2541-8D61-3776593EEE2B}" type="presOf" srcId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}" destId="{B45C04D5-3378-1B4C-96A0-8C47706656C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E196DF7B-44DB-2644-ADB3-27B8ED0F8C0B}" type="presOf" srcId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" destId="{A7FC8F70-F0DA-9D4C-896A-A9F839625FE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{0648117D-08DA-4D4F-B9EB-9342932E857D}" type="presOf" srcId="{EE397787-2067-234A-8FC7-877B3A85D769}" destId="{2388F7D7-7C37-9A45-B993-6C7EB10EEBC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E71E8183-47A7-FF45-9AD2-50040842F79C}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{7B13923C-FD95-7047-9A3E-DAF428E79458}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{1EC5C886-CA66-FA4D-82F6-88D2DAE54D3A}" srcId="{D5CFFC57-AD1C-B64F-AB60-183A6401F2D2}" destId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" srcOrd="0" destOrd="0" parTransId="{779C4FAB-7AB7-C34B-9535-0232D681C025}" sibTransId="{E8486144-25DB-EA4C-A9FC-BDDDF1735CB2}"/>
-    <dgm:cxn modelId="{A64C8587-F420-C440-BDD0-C506B41127A0}" type="presOf" srcId="{036C34BC-A25C-EA41-A972-0F3FE4DFC478}" destId="{420DE5CE-4305-E44F-BC27-2686D8BD35D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{3DAE4D98-ACD5-8C43-AF8D-9F1DB3D3F5A7}" type="presOf" srcId="{C2D96C87-B3F1-D64E-9F66-CFE2BA9EEE6D}" destId="{0B772F5E-1529-E042-96B4-A684645D3AF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{1C24399A-1BF2-C24F-9A94-9C9D2A500EFF}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{02967BF2-535B-3846-B9F7-07A678CAA257}" srcOrd="3" destOrd="0" parTransId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" sibTransId="{59E6DAA2-2353-CB41-90AC-B6E3F3C7F444}"/>
-    <dgm:cxn modelId="{06F6729A-B930-7444-AE0C-305FDBE51E6E}" type="presOf" srcId="{9025275D-ED64-AC44-844F-BB686D1AF982}" destId="{D4BA154A-EF9B-5545-9696-4B3B9C7D9989}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{62F089A4-7B32-0542-9AA1-5DCF40C45724}" type="presOf" srcId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" destId="{FAA3A569-258F-7242-A92B-6951F6C84073}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{1D8E88B1-AEFA-3F40-B878-ED315643DE4C}" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{D04C4C58-946F-D944-BDF7-73ADB4134DD1}" srcOrd="0" destOrd="0" parTransId="{03C243B6-A957-CA43-91BD-7E272D127203}" sibTransId="{343935CA-FCA2-404A-877B-AF2BCFC4A078}"/>
-    <dgm:cxn modelId="{B9EE7AB5-B502-7049-A561-94A6A7B83785}" type="presOf" srcId="{63D33B29-7A26-C144-B433-5F26993B6C0D}" destId="{B105212A-2996-A541-BC63-AF73B2538D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{C642D8B9-217A-064D-9258-2FAC83C5DF85}" srcId="{F98D261B-FA3F-A048-9B8F-5EFD7EBD41C6}" destId="{EE397787-2067-234A-8FC7-877B3A85D769}" srcOrd="1" destOrd="0" parTransId="{578E0DD4-24DE-0744-98E5-9D2FB6E96CC0}" sibTransId="{73F3DB4A-337D-414C-B007-81D3692886D0}"/>
-    <dgm:cxn modelId="{34C3AABC-C52B-FF45-9B22-7FD7579A3258}" type="presOf" srcId="{72BF958B-29D3-0D47-AAF9-9E12DAD67F7E}" destId="{26216422-7CD8-0945-9AB2-DF674DFD19BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{AAD943BE-E2B3-4940-A1E3-B19E61544394}" type="presOf" srcId="{AE4581D9-D10F-1B45-BF66-0E8F0FE3DF18}" destId="{78DA23B7-9A18-2D4B-A9D3-96365546CAEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{7E12D0CC-9738-4948-AB46-A419BCEB61D6}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{7B907AD7-AF4B-B54C-84AA-E1F888E40B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{9C42BFD9-1D28-234F-A2D5-5DB21BCAA3EB}" type="presOf" srcId="{03C243B6-A957-CA43-91BD-7E272D127203}" destId="{652478D0-177F-DD46-A54C-236EE83C5B18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{CB23CDE9-7ECE-3C43-A7FC-9A237FCA3B72}" type="presOf" srcId="{02967BF2-535B-3846-B9F7-07A678CAA257}" destId="{039AAD9A-8EB9-4C46-8244-7E7A06416C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
-    <dgm:cxn modelId="{E0B0DDE9-D3D0-CB41-BBC8-5CD501E39817}" type="presOf" srcId="{505D48D8-B21A-2144-B2DD-A5EB7984E8D5}" destId="{96325838-125F-6243-AD2B-2637D228B03B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{E4687A1A-996F-EC45-942B-8E43174B50F1}" type="presParOf" srcId="{97583BB3-BAA1-9B44-9E03-27B069D8F1D4}" destId="{C2011300-D19B-A942-96B9-72ED819A0B38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{B384B0A4-918F-964B-AFAF-F9AB333A939B}" type="presParOf" srcId="{C2011300-D19B-A942-96B9-72ED819A0B38}" destId="{6B752A5D-C7D8-2D4A-BC91-9EB41ECDCBC9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
     <dgm:cxn modelId="{09F8A591-2F28-1A46-9F15-3C0EEADB001A}" type="presParOf" srcId="{6B752A5D-C7D8-2D4A-BC91-9EB41ECDCBC9}" destId="{BB55A918-BFE1-AD45-B1D3-C92B258950F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/NameandTitleOrganizationalChart"/>
@@ -2393,7 +2618,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2403,7 +2628,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -2470,7 +2694,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
+          <a:pPr lvl="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2480,7 +2704,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
@@ -2493,7 +2716,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
+          <a:pPr lvl="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2503,7 +2726,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
@@ -2511,7 +2733,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="444500">
+          <a:pPr lvl="0" algn="r" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2521,7 +2743,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
@@ -2602,7 +2823,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2612,7 +2833,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -2683,7 +2903,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
+          <a:pPr lvl="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2693,7 +2913,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
@@ -2758,7 +2977,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2768,7 +2987,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -2839,7 +3057,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
+          <a:pPr lvl="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2849,7 +3067,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
@@ -2914,7 +3131,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2924,7 +3141,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -2995,7 +3211,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
+          <a:pPr lvl="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3005,7 +3221,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
@@ -3070,7 +3285,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3080,7 +3295,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -3147,7 +3361,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
+          <a:pPr lvl="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3157,7 +3371,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3166,7 +3379,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
+          <a:pPr lvl="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3176,7 +3389,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3185,7 +3397,7 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="266700">
+          <a:pPr lvl="0" algn="r" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3195,7 +3407,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
@@ -3263,7 +3474,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3273,7 +3484,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1800" kern="1200"/>
@@ -3340,7 +3550,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
+          <a:pPr lvl="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3350,7 +3560,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
@@ -3415,7 +3624,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr lvl="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3425,7 +3634,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800" kern="1200"/>
@@ -3496,7 +3704,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" defTabSz="666750">
+          <a:pPr lvl="0" algn="r" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3506,7 +3714,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
@@ -5740,22 +5947,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>223520</xdr:rowOff>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图示 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41B0B1F1-FD59-5D4D-A65D-231AA2A87E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6072,14 +6279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E9052-9F5C-E24F-947A-E8AAD935CF42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
@@ -6092,7 +6299,7 @@
     <col min="12" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6115,16 +6322,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>7</v>
@@ -6157,7 +6364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="27" customHeight="1">
+    <row r="2" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>800001</v>
       </c>
@@ -6173,7 +6380,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6210,7 +6417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="27" customHeight="1">
+    <row r="3" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>800002</v>
       </c>
@@ -6245,7 +6452,7 @@
         <v>6000</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>33</v>
@@ -6263,7 +6470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="27" customHeight="1">
+    <row r="4" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>800003</v>
       </c>
@@ -6279,7 +6486,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6316,7 +6523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" customHeight="1">
+    <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>800004</v>
       </c>
@@ -6327,12 +6534,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -6369,7 +6576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="27" customHeight="1">
+    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>800005</v>
       </c>
@@ -6377,13 +6584,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -6395,9 +6602,7 @@
       <c r="M6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="5">
         <v>10000</v>
       </c>
@@ -6420,7 +6625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="27" customHeight="1">
+    <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>800007</v>
       </c>
@@ -6428,15 +6633,15 @@
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6449,7 +6654,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O7" s="5">
         <v>6000</v>
@@ -6473,7 +6678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="27" customHeight="1">
+    <row r="8" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>800008</v>
       </c>
@@ -6481,7 +6686,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -6503,9 +6708,7 @@
       <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="N8" s="21"/>
       <c r="O8" s="5">
         <v>4000</v>
       </c>
@@ -6528,28 +6731,83 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="27" customHeight="1">
+    <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>800009</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>42561</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="27" customHeight="1">
+    <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="27" customHeight="1">
+    <row r="13" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="27" customHeight="1">
+    <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="27" customHeight="1">
+    <row r="15" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="27" customHeight="1">
+    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P8" xr:uid="{3A29E9FD-7976-0146-8FE7-10B77E4EB45A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P9">
       <formula1>"一1,一2,一3,二1,二2,二3,三1,三2,三3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/temp/组织架构图模版.xlsx
+++ b/static/temp/组织架构图模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangjiecong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC8563-8871-F94A-84B8-5EBD6D798B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC5F20-C9D3-424A-B8FB-BC89DE1215C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>工号</t>
   </si>
@@ -45,33 +45,12 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>一级部门</t>
-  </si>
-  <si>
-    <t>二级部门</t>
-  </si>
-  <si>
-    <t>三级部门</t>
-  </si>
-  <si>
-    <t>四级部门</t>
-  </si>
-  <si>
     <t>任职职位</t>
   </si>
   <si>
-    <t>入职日期</t>
-  </si>
-  <si>
-    <t>工作地点</t>
-  </si>
-  <si>
     <t>直接上级</t>
   </si>
   <si>
-    <t>能力等级</t>
-  </si>
-  <si>
     <t>深圳</t>
   </si>
   <si>
@@ -93,10 +72,6 @@
     <t>三2</t>
   </si>
   <si>
-    <t>目前月薪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q1绩效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,22 +192,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>院校层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,7 +224,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最近调薪时间</t>
+    <t>1976/08/08</t>
+  </si>
+  <si>
+    <t>1993/02/04</t>
+  </si>
+  <si>
+    <t>1984/07/22</t>
+  </si>
+  <si>
+    <t>1987/04/10</t>
+  </si>
+  <si>
+    <t>1995/03/01</t>
+  </si>
+  <si>
+    <t>2003年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级部门（D1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级部门（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级部门（D3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级部门（D4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期（B）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间（G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地点（L）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前月薪（P）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近调薪时间（PT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力评级（PJ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（PS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期（OD）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,6 +373,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线 Light"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线 Light"/>
       <family val="3"/>
@@ -332,10 +403,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线 Light"/>
-      <family val="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -403,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,9 +488,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,7 +540,16 @@
     <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,6 +568,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704CE31D-B275-2948-B300-0F59BAF1A46F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7904480" y="3119120"/>
+          <a:ext cx="1442720" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>学历</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和学历</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在图中合并显示，格式为：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：本科</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F431E1-8769-DD4F-8F5D-2AED7A8DAA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15433040" y="3180080"/>
+          <a:ext cx="2042160" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绩效在图中合并显示，格式为（无需字段名）：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0A1A2B3B4A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,558 +1055,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="9"/>
-    <col min="3" max="3" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="9"/>
-    <col min="7" max="7" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.83203125" style="9" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="9"/>
-    <col min="16" max="16" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="21"/>
+    <col min="15" max="15" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="17" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>22</v>
+      <c r="O1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="27" customHeight="1">
+    <row r="2" spans="1:23" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>800001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="23">
         <v>37571</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5">
+        <v>4</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4">
         <v>9000</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="24">
         <v>43101</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1">
+    <row r="3" spans="1:23" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>800002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="3">
+        <v>985</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="23">
         <v>37571</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>43102</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="5">
-        <v>6000</v>
-      </c>
-      <c r="P3" s="22">
-        <v>43102</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="V3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1">
+    <row r="4" spans="1:23" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>800003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="23">
         <v>38052</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4">
         <v>8000</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="24">
         <v>43103</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="1:22" ht="27" customHeight="1">
+    <row r="5" spans="1:23" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>800004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="3">
+        <v>211</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="23">
         <v>38042</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4">
         <v>8000</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="24">
         <v>43104</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1">
+    <row r="6" spans="1:23" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>800005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="3">
+        <v>985</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="23">
         <v>38251</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="4">
         <v>10000</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <v>43105</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:22" ht="27" customHeight="1">
+    <row r="7" spans="1:23" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>800007</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="23">
         <v>38908</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="5">
+        <v>9</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="4">
         <v>6000</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <v>43106</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:22" ht="27" customHeight="1">
+    <row r="8" spans="1:23" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>800008</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="23">
         <v>42561</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="5">
+        <v>9</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="4">
         <v>4000</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="24">
         <v>43107</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="10">
+      <c r="Q8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>0</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="U8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:22" ht="27" customHeight="1">
+    <row r="9" spans="1:23" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>800009</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4">
+      <c r="K9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="23">
         <v>42561</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="5">
+        <v>9</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="4">
         <v>4000</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="24">
         <v>43108</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="10">
+      <c r="Q9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="9">
         <v>0</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <v>0</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>0</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="U9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="9"/>
     </row>
-    <row r="11" spans="1:22" ht="27" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:23" ht="27" customHeight="1">
+      <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="27" customHeight="1">
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:23" ht="27" customHeight="1">
+      <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:22" ht="27" customHeight="1">
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:23" ht="27" customHeight="1">
+      <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:22" ht="27" customHeight="1">
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:23" ht="27" customHeight="1">
+      <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="27" customHeight="1">
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:23" ht="27" customHeight="1">
+      <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:23" ht="27" customHeight="1">
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1352,5 +1694,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/temp/组织架构图模版.xlsx
+++ b/static/temp/组织架构图模版.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangjiecong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\organization-chart\static\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC5F20-C9D3-424A-B8FB-BC89DE1215C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="2040" windowHeight="1290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>工号</t>
   </si>
@@ -312,18 +308,46 @@
   </si>
   <si>
     <t>入职日期（OD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜力评级（QL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,7 +579,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,7 +614,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704CE31D-B275-2948-B300-0F59BAF1A46F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{704CE31D-B275-2948-B300-0F59BAF1A46F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,13 +703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -695,7 +719,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F431E1-8769-DD4F-8F5D-2AED7A8DAA35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3F431E1-8769-DD4F-8F5D-2AED7A8DAA35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,32 +1078,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="8"/>
-    <col min="3" max="3" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="8"/>
+    <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.875" style="8" customWidth="1"/>
     <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="21"/>
-    <col min="15" max="15" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="8"/>
+    <col min="14" max="14" width="10.875" style="21"/>
+    <col min="15" max="15" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:24" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1132,25 +1156,28 @@
         <v>70</v>
       </c>
       <c r="R1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="27" customHeight="1">
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>800001</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>59</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="L2" s="23">
         <v>37571</v>
@@ -1198,24 +1225,27 @@
       <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>24</v>
+      <c r="R2" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:23" ht="27" customHeight="1">
+    <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>800002</v>
       </c>
@@ -1263,8 +1293,8 @@
       <c r="Q3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>25</v>
+      <c r="R3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>25</v>
@@ -1273,14 +1303,17 @@
         <v>25</v>
       </c>
       <c r="U3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="9"/>
+      <c r="W3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:23" ht="27" customHeight="1">
+    <row r="4" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>800003</v>
       </c>
@@ -1328,24 +1361,27 @@
       <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>26</v>
+      <c r="R4" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="9"/>
+      <c r="W4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:23" ht="27" customHeight="1">
+    <row r="5" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>800004</v>
       </c>
@@ -1393,24 +1429,27 @@
       <c r="Q5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>25</v>
+      <c r="R5" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="T5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="V5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:23" ht="27" customHeight="1">
+    <row r="6" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>800005</v>
       </c>
@@ -1454,8 +1493,8 @@
       <c r="Q6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>25</v>
+      <c r="R6" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>25</v>
@@ -1469,9 +1508,12 @@
       <c r="V6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="9"/>
+      <c r="W6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:23" ht="27" customHeight="1">
+    <row r="7" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>800007</v>
       </c>
@@ -1502,7 +1544,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="23">
-        <v>38908</v>
+        <v>38899</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
@@ -1514,13 +1556,13 @@
         <v>6000</v>
       </c>
       <c r="P7" s="24">
-        <v>43106</v>
+        <v>43101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>25</v>
+      <c r="R7" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>25</v>
@@ -1534,9 +1576,12 @@
       <c r="V7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="9"/>
+      <c r="W7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:23" ht="27" customHeight="1">
+    <row r="8" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>800008</v>
       </c>
@@ -1584,8 +1629,8 @@
       <c r="Q8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="9">
-        <v>0</v>
+      <c r="R8" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="S8" s="9">
         <v>0</v>
@@ -1593,15 +1638,18 @@
       <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="9" t="s">
-        <v>25</v>
+      <c r="U8" s="9">
+        <v>0</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="9"/>
+      <c r="W8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
+    <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>800009</v>
       </c>
@@ -1651,8 +1699,8 @@
       <c r="Q9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="9">
-        <v>0</v>
+      <c r="R9" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
@@ -1660,40 +1708,44 @@
       <c r="T9" s="9">
         <v>0</v>
       </c>
-      <c r="U9" s="9" t="s">
-        <v>25</v>
+      <c r="U9" s="9">
+        <v>0</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="9"/>
+      <c r="W9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X9" s="9"/>
     </row>
-    <row r="11" spans="1:23" ht="27" customHeight="1">
+    <row r="11" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="27" customHeight="1">
+    <row r="12" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:23" ht="27" customHeight="1">
+    <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="27" customHeight="1">
+    <row r="14" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:23" ht="27" customHeight="1">
+    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="27" customHeight="1">
+    <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9">
       <formula1>"一1,一2,一3,二1,二2,二3,三1,三2,三3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>